--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Zadanie Rekrutacyjne\NBP_Exchange_rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B60128-1DFB-4C1C-BB22-14446903A9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -84,24 +84,6 @@
     <t>System exception.</t>
   </si>
   <si>
-    <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
   </si>
   <si>
@@ -120,12 +102,6 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-  </si>
-  <si>
     <t>MaxConsecutiveSystemExceptions</t>
   </si>
   <si>
@@ -159,7 +135,25 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
+    <t>RecipientEmail</t>
+  </si>
+  <si>
+    <t>damianooo40@gmail.com</t>
+  </si>
+  <si>
+    <t>RangeInDays</t>
+  </si>
+  <si>
+    <t>CurrencyCodes</t>
+  </si>
+  <si>
+    <t>EUR;USD;CHF</t>
+  </si>
+  <si>
+    <t>How many days back from today should the data be downloaded</t>
+  </si>
+  <si>
+    <t>What currencies should be checked? Split using ";"</t>
   </si>
 </sst>
 </file>
@@ -211,19 +205,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -239,9 +234,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +274,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -537,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -584,39 +579,43 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="14.4">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>365</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1620,7 +1619,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1670,21 +1669,21 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1708,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1730,7 +1729,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1741,7 +1740,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1752,53 +1751,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2782,7 +2781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2800,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Zadanie Rekrutacyjne\NBP_Exchange_rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B60128-1DFB-4C1C-BB22-14446903A9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B39726F-273F-4BB9-AAD1-58669506E7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>RangeInDays</t>
   </si>
   <si>
-    <t>CurrencyCodes</t>
-  </si>
-  <si>
     <t>EUR;USD;CHF</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>What currencies should be checked? Split using ";"</t>
+  </si>
+  <si>
+    <t>CurrencyCodesString</t>
   </si>
 </sst>
 </file>
@@ -205,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -215,7 +215,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -533,7 +532,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -587,7 +586,7 @@
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="4"/>
@@ -601,19 +600,19 @@
         <v>365</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Zadanie Rekrutacyjne\NBP_Exchange_rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B39726F-273F-4BB9-AAD1-58669506E7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513D07D4-11D2-4B4A-8556-6BC5289B7B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
     <t>What currencies should be checked? Split using ";"</t>
   </si>
   <si>
-    <t>CurrencyCodesString</t>
+    <t>CurrencyCodesStr</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Zadanie Rekrutacyjne\NBP_Exchange_rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513D07D4-11D2-4B4A-8556-6BC5289B7B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E7DA93-9D99-4B9F-8086-91DF6D296EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>CurrencyCodesStr</t>
+  </si>
+  <si>
+    <t>FolderWithFinalExcel</t>
+  </si>
+  <si>
+    <t>Data\Output\</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -616,7 +622,14 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Zadanie Rekrutacyjne\NBP_Exchange_rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E7DA93-9D99-4B9F-8086-91DF6D296EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C69E9F8-9A54-46E5-89D5-4EE3C02ED9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>RangeInDays</t>
   </si>
   <si>
-    <t>EUR;USD;CHF</t>
-  </si>
-  <si>
     <t>How many days back from today should the data be downloaded</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Data\Output\</t>
+  </si>
+  <si>
+    <t>TAK;EUR;USD;CHF</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -606,28 +606,28 @@
         <v>365</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Zadanie Rekrutacyjne\NBP_Exchange_rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C69E9F8-9A54-46E5-89D5-4EE3C02ED9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1C2026-20C3-43C3-8FE0-78FB8994634C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     <t>Data\Output\</t>
   </si>
   <si>
-    <t>TAK;EUR;USD;CHF</t>
+    <t>EUR;USD;CHF</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B17" activeCellId="1" sqref="B26 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Zadanie Rekrutacyjne\NBP_Exchange_rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1C2026-20C3-43C3-8FE0-78FB8994634C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48A5EDF-A581-4906-8755-242ED35E1941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     <t>Data\Output\</t>
   </si>
   <si>
-    <t>EUR;USD;CHF</t>
+    <t>TAK;EUR;USD;CHF</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" activeCellId="1" sqref="B26 B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Zadanie Rekrutacyjne\NBP_Exchange_rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48A5EDF-A581-4906-8755-242ED35E1941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDEBD60-E199-499A-B86B-B39F791C5A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>RangeInDays</t>
   </si>
   <si>
-    <t>How many days back from today should the data be downloaded</t>
-  </si>
-  <si>
     <t>What currencies should be checked? Split using ";"</t>
   </si>
   <si>
@@ -159,7 +156,10 @@
     <t>Data\Output\</t>
   </si>
   <si>
-    <t>TAK;EUR;USD;CHF</t>
+    <t>TAK;EUR;USD;CHF;WWWW</t>
+  </si>
+  <si>
+    <t>How many days back from today should the data be downloaded. Must be lower than 367 !</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -221,6 +221,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -538,7 +539,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -592,7 +593,7 @@
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="4"/>
@@ -606,28 +607,28 @@
         <v>365</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Zadanie Rekrutacyjne\NBP_Exchange_rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDEBD60-E199-499A-B86B-B39F791C5A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEAD87C-8164-494D-9FE7-6C016E399097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1200" windowWidth="11304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -156,10 +156,10 @@
     <t>Data\Output\</t>
   </si>
   <si>
-    <t>TAK;EUR;USD;CHF;WWWW</t>
-  </si>
-  <si>
     <t>How many days back from today should the data be downloaded. Must be lower than 367 !</t>
+  </si>
+  <si>
+    <t>EUR;USD;CHF</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -221,7 +221,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -539,7 +538,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -593,7 +592,7 @@
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="4"/>
@@ -607,7 +606,7 @@
         <v>365</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -616,7 +615,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Zadanie Rekrutacyjne\NBP_Exchange_rates\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.chamerski\Desktop\NBP_Exchange_rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEAD87C-8164-494D-9FE7-6C016E399097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A40D4-3DC3-4622-94ED-821CE007AD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1200" windowWidth="11304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -538,15 +538,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -588,7 +588,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4">
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -598,7 +598,7 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1634,12 +1634,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1676,7 +1676,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2797,12 +2797,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
